--- a/Code/Results/Cases/Case_3_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.46349398970611</v>
+        <v>11.11392488232964</v>
       </c>
       <c r="C2">
-        <v>12.29565556182098</v>
+        <v>8.486287452005675</v>
       </c>
       <c r="D2">
-        <v>3.94679991218515</v>
+        <v>3.893111034493049</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.77569056386185</v>
+        <v>20.54983768875346</v>
       </c>
       <c r="G2">
-        <v>2.055202287916532</v>
+        <v>3.598744595220072</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.91696731516287</v>
+        <v>19.96815084659818</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.51080747567216</v>
+        <v>18.22946327563676</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.33073210400213</v>
+        <v>10.54320204495148</v>
       </c>
       <c r="C3">
-        <v>11.73578893730057</v>
+        <v>8.194613980783108</v>
       </c>
       <c r="D3">
-        <v>3.819486902375278</v>
+        <v>3.843837355465287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.12142570079302</v>
+        <v>20.51677351315613</v>
       </c>
       <c r="G3">
-        <v>2.061137604650255</v>
+        <v>3.600876652675796</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.61398237346795</v>
+        <v>19.36275468584799</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.25415138943931</v>
+        <v>18.27408084785947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.59498073466419</v>
+        <v>10.17664796610747</v>
       </c>
       <c r="C4">
-        <v>11.37625368390888</v>
+        <v>8.009102710566873</v>
       </c>
       <c r="D4">
-        <v>3.738525786174637</v>
+        <v>3.812968854709414</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.73259987672392</v>
+        <v>20.5045364596227</v>
       </c>
       <c r="G4">
-        <v>2.064873398826033</v>
+        <v>3.602254047048987</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.15056211055283</v>
+        <v>18.98949138819381</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.11461140820939</v>
+        <v>18.30770238345032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.28508377259661</v>
+        <v>10.02337290749713</v>
       </c>
       <c r="C5">
-        <v>11.2259308566858</v>
+        <v>7.931975168187614</v>
       </c>
       <c r="D5">
-        <v>3.70487211017192</v>
+        <v>3.800243612340682</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.57754295938961</v>
+        <v>20.50157707320447</v>
       </c>
       <c r="G5">
-        <v>2.066420029095784</v>
+        <v>3.602832581133589</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.54091744642063</v>
+        <v>18.83725019432145</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.06216211755619</v>
+        <v>18.32296017933113</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23301886712122</v>
+        <v>9.997691131159248</v>
       </c>
       <c r="C6">
-        <v>11.2007447579941</v>
+        <v>7.919078435213995</v>
       </c>
       <c r="D6">
-        <v>3.699245224734617</v>
+        <v>3.798122021568361</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.55200527244966</v>
+        <v>20.50120804615518</v>
       </c>
       <c r="G6">
-        <v>2.066678345901228</v>
+        <v>3.602929688957185</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.43886044273556</v>
+        <v>18.81197032764604</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.05371566240883</v>
+        <v>18.32558747580883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.59084206920798</v>
+        <v>10.17459641703237</v>
       </c>
       <c r="C7">
-        <v>11.37424158002295</v>
+        <v>8.008068618551398</v>
       </c>
       <c r="D7">
-        <v>3.73807454372859</v>
+        <v>3.812797817890311</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.73049478520504</v>
+        <v>20.50448834242157</v>
       </c>
       <c r="G7">
-        <v>2.064894157401476</v>
+        <v>3.602261779499376</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.14239510630856</v>
+        <v>18.98743840280071</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.11388635938643</v>
+        <v>18.30790186438637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.08128975391801</v>
+        <v>10.92057120992136</v>
       </c>
       <c r="C8">
-        <v>12.10597684568258</v>
+        <v>8.3870995599955</v>
       </c>
       <c r="D8">
-        <v>3.903505025510248</v>
+        <v>3.876253925600098</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.54751079893968</v>
+        <v>20.5367638261656</v>
       </c>
       <c r="G8">
-        <v>2.057230595681237</v>
+        <v>3.599465588349669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.13258231007752</v>
+        <v>19.7598807839736</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.41849629500788</v>
+        <v>18.24355004268488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.68351786834528</v>
+        <v>12.24997259504609</v>
       </c>
       <c r="C9">
-        <v>13.40955684854052</v>
+        <v>9.076138378953701</v>
       </c>
       <c r="D9">
-        <v>4.204093884924977</v>
+        <v>3.995460537731337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.24620550779547</v>
+        <v>20.66394696462158</v>
       </c>
       <c r="G9">
-        <v>2.042863614354953</v>
+        <v>3.594521495575549</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.65167224460425</v>
+        <v>21.25184238515204</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.16399102739593</v>
+        <v>18.16712312945393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.39861947172474</v>
+        <v>13.13949325327647</v>
       </c>
       <c r="C10">
-        <v>14.27946535676976</v>
+        <v>9.545500915666079</v>
       </c>
       <c r="D10">
-        <v>4.4082058695488</v>
+        <v>4.079392928661238</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.54752077314331</v>
+        <v>20.79603049118422</v>
       </c>
       <c r="G10">
-        <v>2.032605518953906</v>
+        <v>3.591213983218111</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.57890157509279</v>
+        <v>22.32115074527741</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.80850848891861</v>
+        <v>18.14176204469386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.13582212850734</v>
+        <v>13.52434934546593</v>
       </c>
       <c r="C11">
-        <v>14.65447983732677</v>
+        <v>9.750366173547343</v>
       </c>
       <c r="D11">
-        <v>4.496939179439104</v>
+        <v>4.116691390169731</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.15082032967133</v>
+        <v>20.86438781623001</v>
       </c>
       <c r="G11">
-        <v>2.027973809908152</v>
+        <v>3.589779046248619</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.36317338082524</v>
+        <v>22.79939139864959</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.12423986583876</v>
+        <v>18.13698988187796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.40875251032929</v>
+        <v>13.66718332017413</v>
       </c>
       <c r="C12">
-        <v>14.79335297666642</v>
+        <v>9.826653897370463</v>
       </c>
       <c r="D12">
-        <v>4.529901835769344</v>
+        <v>4.130681025740805</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.38096468222414</v>
+        <v>20.8914480952364</v>
       </c>
       <c r="G12">
-        <v>2.026221767179293</v>
+        <v>3.589245628626381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.04143116917173</v>
+        <v>22.97913566985564</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24719301530978</v>
+        <v>18.13616065199404</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.35025027495879</v>
+        <v>13.63655134854302</v>
       </c>
       <c r="C13">
-        <v>14.7635865066191</v>
+        <v>9.810282033072982</v>
       </c>
       <c r="D13">
-        <v>4.522831969615368</v>
+        <v>4.127674205222469</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.33132203113364</v>
+        <v>20.88556818850657</v>
       </c>
       <c r="G13">
-        <v>2.026599074739619</v>
+        <v>3.589360067490655</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.89518461240021</v>
+        <v>22.94048742181025</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.22055909491032</v>
+        <v>18.1362956780759</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.15840153869901</v>
+        <v>13.53615884103217</v>
       </c>
       <c r="C14">
-        <v>14.66596888866825</v>
+        <v>9.756668514630642</v>
       </c>
       <c r="D14">
-        <v>4.499664131595379</v>
+        <v>4.117845063193765</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.16971996872463</v>
+        <v>20.86659062892209</v>
       </c>
       <c r="G14">
-        <v>2.027829651002818</v>
+        <v>3.589734962329932</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.41890215967086</v>
+        <v>22.81420717639736</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.13428628490597</v>
+        <v>18.13690203632164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.04007520333381</v>
+        <v>13.47428602893259</v>
       </c>
       <c r="C15">
-        <v>14.60576160583538</v>
+        <v>9.723659376210261</v>
       </c>
       <c r="D15">
-        <v>4.485388473846654</v>
+        <v>4.111806697965482</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.07095707127998</v>
+        <v>20.85511884718386</v>
       </c>
       <c r="G15">
-        <v>2.028583555082052</v>
+        <v>3.589965891910048</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.12760482291123</v>
+        <v>22.73667545941336</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.08188871139381</v>
+        <v>18.1374009339629</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.34957253209686</v>
+        <v>13.11393863755591</v>
       </c>
       <c r="C16">
-        <v>14.25452755658871</v>
+        <v>9.531934318480623</v>
       </c>
       <c r="D16">
-        <v>4.402320248449503</v>
+        <v>4.07693697093081</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.50832482205244</v>
+        <v>20.79172843707962</v>
       </c>
       <c r="G16">
-        <v>2.03290866118888</v>
+        <v>3.591309156795211</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.46248001614975</v>
+        <v>22.28971619761518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.78834030116297</v>
+        <v>18.14221049953908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.91492876951813</v>
+        <v>12.88776404802977</v>
       </c>
       <c r="C17">
-        <v>14.0336470080638</v>
+        <v>9.412066709619243</v>
       </c>
       <c r="D17">
-        <v>4.350274718564487</v>
+        <v>4.055313955746486</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.16608584907326</v>
+        <v>20.75494949416591</v>
       </c>
       <c r="G17">
-        <v>2.035568871863713</v>
+        <v>3.592151009648152</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.44222385821234</v>
+        <v>22.01329117875635</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.61412671376036</v>
+        <v>18.14689755920955</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.66088902792429</v>
+        <v>12.75581413125818</v>
       </c>
       <c r="C18">
-        <v>13.90466340430577</v>
+        <v>9.342310207106229</v>
       </c>
       <c r="D18">
-        <v>4.319954939553638</v>
+        <v>4.042794307068281</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.97029710660393</v>
+        <v>20.73457484829633</v>
       </c>
       <c r="G18">
-        <v>2.037102446406271</v>
+        <v>3.592641781873441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.85497282104981</v>
+        <v>21.85353708350743</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.51603424701048</v>
+        <v>18.15022991091718</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.57418208701608</v>
+        <v>12.71082057267353</v>
       </c>
       <c r="C19">
-        <v>13.86066318527354</v>
+        <v>9.318553937668968</v>
       </c>
       <c r="D19">
-        <v>4.309624445021633</v>
+        <v>4.038541406499045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.90418762361687</v>
+        <v>20.72781064946111</v>
       </c>
       <c r="G19">
-        <v>2.037622371864672</v>
+        <v>3.592809077443101</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.6559909286815</v>
+        <v>21.79932194582982</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.48318029367297</v>
+        <v>18.15146733244268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.96161617412891</v>
+        <v>12.9120336979243</v>
       </c>
       <c r="C20">
-        <v>14.0573618592078</v>
+        <v>9.424911197565713</v>
       </c>
       <c r="D20">
-        <v>4.355855170358208</v>
+        <v>4.057624373428274</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.20240809741793</v>
+        <v>20.75878408472758</v>
       </c>
       <c r="G20">
-        <v>2.03528534683236</v>
+        <v>3.592060714371364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.55085760204182</v>
+        <v>22.04279726873576</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.63245263436853</v>
+        <v>18.1463327004984</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.21492180538468</v>
+        <v>13.565725727592</v>
       </c>
       <c r="C21">
-        <v>14.69472808469302</v>
+        <v>9.772451463211635</v>
       </c>
       <c r="D21">
-        <v>4.50648683059567</v>
+        <v>4.120735828794088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.21713970103035</v>
+        <v>20.87213304251047</v>
       </c>
       <c r="G21">
-        <v>2.027468178273337</v>
+        <v>3.589624576712605</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.55869974762064</v>
+        <v>22.85133684439636</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.15953320972106</v>
+        <v>18.13669735845511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.99766067791137</v>
+        <v>13.97601356211137</v>
       </c>
       <c r="C22">
-        <v>15.09290226279389</v>
+        <v>9.99205083793194</v>
       </c>
       <c r="D22">
-        <v>4.601182264208405</v>
+        <v>4.161195673280252</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.89025855581248</v>
+        <v>20.95305247043708</v>
       </c>
       <c r="G22">
-        <v>2.022368152631847</v>
+        <v>3.588090459396454</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.54169902013836</v>
+        <v>23.37179604730623</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.52389073933906</v>
+        <v>18.13610168082096</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5832487593356</v>
+        <v>13.7586009115933</v>
       </c>
       <c r="C23">
-        <v>14.8821319856549</v>
+        <v>9.875550079765434</v>
       </c>
       <c r="D23">
-        <v>4.551002361631586</v>
+        <v>4.139675924960154</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.53005008736647</v>
+        <v>20.90924393539333</v>
       </c>
       <c r="G23">
-        <v>2.025090551484212</v>
+        <v>3.588903954562121</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.48054079046229</v>
+        <v>23.09480016075598</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.32754494619871</v>
+        <v>18.13589645867537</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94052174416345</v>
+        <v>12.90106736245833</v>
       </c>
       <c r="C24">
-        <v>14.04664658193563</v>
+        <v>9.419106826790223</v>
       </c>
       <c r="D24">
-        <v>4.353333484729808</v>
+        <v>4.056580108020767</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.18598379396422</v>
+        <v>20.75704806669496</v>
       </c>
       <c r="G24">
-        <v>2.035413515242193</v>
+        <v>3.592101515744061</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.50174664946886</v>
+        <v>22.02946014853265</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.6241610636849</v>
+        <v>18.14658608723218</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.01401032124826</v>
+        <v>11.90529723621311</v>
       </c>
       <c r="C25">
-        <v>13.07178584469604</v>
+        <v>8.895965453328493</v>
       </c>
       <c r="D25">
-        <v>4.125555742602015</v>
+        <v>3.963820444811897</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.77703520134609</v>
+        <v>20.62272170234496</v>
       </c>
       <c r="G25">
-        <v>2.04668939773283</v>
+        <v>3.59580167082497</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.18807552281498</v>
+        <v>20.85206972083139</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.94577976578246</v>
+        <v>18.18242108371829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.11392488232964</v>
+        <v>18.46349398970605</v>
       </c>
       <c r="C2">
-        <v>8.486287452005675</v>
+        <v>12.29565556182104</v>
       </c>
       <c r="D2">
-        <v>3.893111034493049</v>
+        <v>3.946799912185157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.54983768875346</v>
+        <v>17.77569056386189</v>
       </c>
       <c r="G2">
-        <v>3.598744595220072</v>
+        <v>2.055202287916531</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96815084659818</v>
+        <v>29.91696731516287</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.22946327563676</v>
+        <v>13.51080747567223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.54320204495148</v>
+        <v>17.33073210400211</v>
       </c>
       <c r="C3">
-        <v>8.194613980783108</v>
+        <v>11.73578893730046</v>
       </c>
       <c r="D3">
-        <v>3.843837355465287</v>
+        <v>3.819486902375386</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.51677351315613</v>
+        <v>17.12142570079311</v>
       </c>
       <c r="G3">
-        <v>3.600876652675796</v>
+        <v>2.061137604650122</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36275468584799</v>
+        <v>27.61398237346799</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.27408084785947</v>
+        <v>13.25415138943941</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.17664796610747</v>
+        <v>16.59498073466415</v>
       </c>
       <c r="C4">
-        <v>8.009102710566873</v>
+        <v>11.37625368390885</v>
       </c>
       <c r="D4">
-        <v>3.812968854709414</v>
+        <v>3.738525786174509</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.5045364596227</v>
+        <v>16.73259987672397</v>
       </c>
       <c r="G4">
-        <v>3.602254047048987</v>
+        <v>2.064873398825765</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98949138819381</v>
+        <v>26.15056211055284</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.30770238345032</v>
+        <v>13.11461140820944</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.02337290749713</v>
+        <v>16.2850837725966</v>
       </c>
       <c r="C5">
-        <v>7.931975168187614</v>
+        <v>11.22593085668587</v>
       </c>
       <c r="D5">
-        <v>3.800243612340682</v>
+        <v>3.704872110171963</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.50157707320447</v>
+        <v>16.57754295938963</v>
       </c>
       <c r="G5">
-        <v>3.602832581133589</v>
+        <v>2.066420029095918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83725019432145</v>
+        <v>25.54091744642076</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.32296017933113</v>
+        <v>13.06216211755619</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.997691131159248</v>
+        <v>16.23301886712122</v>
       </c>
       <c r="C6">
-        <v>7.919078435213995</v>
+        <v>11.200744757994</v>
       </c>
       <c r="D6">
-        <v>3.798122021568361</v>
+        <v>3.699245224734667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.50120804615518</v>
+        <v>16.55200527244968</v>
       </c>
       <c r="G6">
-        <v>3.602929688957185</v>
+        <v>2.066678345901362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.81197032764604</v>
+        <v>25.43886044273553</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.32558747580883</v>
+        <v>13.05371566240886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.17459641703237</v>
+        <v>16.59084206920793</v>
       </c>
       <c r="C7">
-        <v>8.008068618551398</v>
+        <v>11.37424158002299</v>
       </c>
       <c r="D7">
-        <v>3.812797817890311</v>
+        <v>3.738074543728662</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.50448834242157</v>
+        <v>16.73049478520494</v>
       </c>
       <c r="G7">
-        <v>3.602261779499376</v>
+        <v>2.064894157401211</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98743840280071</v>
+        <v>26.14239510630866</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.30790186438637</v>
+        <v>13.11388635938638</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92057120992136</v>
+        <v>18.08128975391796</v>
       </c>
       <c r="C8">
-        <v>8.3870995599955</v>
+        <v>12.10597684568263</v>
       </c>
       <c r="D8">
-        <v>3.876253925600098</v>
+        <v>3.903505025510254</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.5367638261656</v>
+        <v>17.54751079893981</v>
       </c>
       <c r="G8">
-        <v>3.599465588349669</v>
+        <v>2.057230595681102</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7598807839736</v>
+        <v>29.13258231007744</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.24355004268488</v>
+        <v>13.41849629500799</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.24997259504609</v>
+        <v>20.68351786834529</v>
       </c>
       <c r="C9">
-        <v>9.076138378953701</v>
+        <v>13.40955684854065</v>
       </c>
       <c r="D9">
-        <v>3.995460537731337</v>
+        <v>4.20409388492499</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.66394696462158</v>
+        <v>19.24620550779546</v>
       </c>
       <c r="G9">
-        <v>3.594521495575549</v>
+        <v>2.042863614355221</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25184238515204</v>
+        <v>34.65167224460419</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.16712312945393</v>
+        <v>14.16399102739592</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.13949325327647</v>
+        <v>22.39861947172466</v>
       </c>
       <c r="C10">
-        <v>9.545500915666079</v>
+        <v>14.27946535676976</v>
       </c>
       <c r="D10">
-        <v>4.079392928661238</v>
+        <v>4.408205869548732</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.79603049118422</v>
+        <v>20.54752077314335</v>
       </c>
       <c r="G10">
-        <v>3.591213983218111</v>
+        <v>2.032605518954174</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32115074527741</v>
+        <v>38.5789015750928</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.14176204469386</v>
+        <v>14.80850848891865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.52434934546593</v>
+        <v>23.13582212850741</v>
       </c>
       <c r="C11">
-        <v>9.750366173547343</v>
+        <v>14.65447983732681</v>
       </c>
       <c r="D11">
-        <v>4.116691390169731</v>
+        <v>4.496939179439163</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.86438781623001</v>
+        <v>21.15082032967124</v>
       </c>
       <c r="G11">
-        <v>3.589779046248619</v>
+        <v>2.027973809908018</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.79939139864959</v>
+        <v>40.36317338082519</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.13698988187796</v>
+        <v>15.12423986583867</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.66718332017413</v>
+        <v>23.40875251032928</v>
       </c>
       <c r="C12">
-        <v>9.826653897370463</v>
+        <v>14.79335297666632</v>
       </c>
       <c r="D12">
-        <v>4.130681025740805</v>
+        <v>4.529901835769345</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.8914480952364</v>
+        <v>21.38096468222413</v>
       </c>
       <c r="G12">
-        <v>3.589245628626381</v>
+        <v>2.026221767179292</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.97913566985564</v>
+        <v>41.04143116917166</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.13616065199404</v>
+        <v>15.24719301530978</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.63655134854302</v>
+        <v>23.35025027495881</v>
       </c>
       <c r="C13">
-        <v>9.810282033072982</v>
+        <v>14.76358650661906</v>
       </c>
       <c r="D13">
-        <v>4.127674205222469</v>
+        <v>4.522831969615585</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.88556818850657</v>
+        <v>21.33132203113358</v>
       </c>
       <c r="G13">
-        <v>3.589360067490655</v>
+        <v>2.02659907473935</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94048742181025</v>
+        <v>40.89518461240016</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.1362956780759</v>
+        <v>15.22055909491028</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.53615884103217</v>
+        <v>23.15840153869901</v>
       </c>
       <c r="C14">
-        <v>9.756668514630642</v>
+        <v>14.66596888866823</v>
       </c>
       <c r="D14">
-        <v>4.117845063193765</v>
+        <v>4.499664131595353</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.86659062892209</v>
+        <v>21.16971996872465</v>
       </c>
       <c r="G14">
-        <v>3.589734962329932</v>
+        <v>2.027829651002818</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.81420717639736</v>
+        <v>40.41890215967085</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.13690203632164</v>
+        <v>15.13428628490601</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.47428602893259</v>
+        <v>23.04007520333372</v>
       </c>
       <c r="C15">
-        <v>9.723659376210261</v>
+        <v>14.6057616058353</v>
       </c>
       <c r="D15">
-        <v>4.111806697965482</v>
+        <v>4.485388473846654</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.85511884718386</v>
+        <v>21.07095707128001</v>
       </c>
       <c r="G15">
-        <v>3.589965891910048</v>
+        <v>2.02858355508205</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.73667545941336</v>
+        <v>40.12760482291129</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.1374009339629</v>
+        <v>15.08188871139386</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.11393863755591</v>
+        <v>22.34957253209688</v>
       </c>
       <c r="C16">
-        <v>9.531934318480623</v>
+        <v>14.25452755658874</v>
       </c>
       <c r="D16">
-        <v>4.07693697093081</v>
+        <v>4.402320248449503</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.79172843707962</v>
+        <v>20.50832482205244</v>
       </c>
       <c r="G16">
-        <v>3.591309156795211</v>
+        <v>2.032908661188746</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.28971619761518</v>
+        <v>38.46248001614991</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.14221049953908</v>
+        <v>14.78834030116297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.88776404802977</v>
+        <v>21.91492876951814</v>
       </c>
       <c r="C17">
-        <v>9.412066709619243</v>
+        <v>14.0336470080637</v>
       </c>
       <c r="D17">
-        <v>4.055313955746486</v>
+        <v>4.350274718564473</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.75494949416591</v>
+        <v>20.16608584907328</v>
       </c>
       <c r="G17">
-        <v>3.592151009648152</v>
+        <v>2.035568871863846</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01329117875635</v>
+        <v>37.44222385821227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.14689755920955</v>
+        <v>14.61412671376039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.75581413125818</v>
+        <v>21.66088902792436</v>
       </c>
       <c r="C18">
-        <v>9.342310207106229</v>
+        <v>13.90466340430577</v>
       </c>
       <c r="D18">
-        <v>4.042794307068281</v>
+        <v>4.319954939553664</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.73457484829633</v>
+        <v>19.97029710660392</v>
       </c>
       <c r="G18">
-        <v>3.592641781873441</v>
+        <v>2.037102446406139</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85353708350743</v>
+        <v>36.85497282104981</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.15022991091718</v>
+        <v>14.51603424701043</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.71082057267353</v>
+        <v>21.57418208701608</v>
       </c>
       <c r="C19">
-        <v>9.318553937668968</v>
+        <v>13.86066318527359</v>
       </c>
       <c r="D19">
-        <v>4.038541406499045</v>
+        <v>4.309624445021618</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.72781064946111</v>
+        <v>19.90418762361685</v>
       </c>
       <c r="G19">
-        <v>3.592809077443101</v>
+        <v>2.037622371864536</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.79932194582982</v>
+        <v>36.65599092868158</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.15146733244268</v>
+        <v>14.48318029367293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.9120336979243</v>
+        <v>21.96161617412895</v>
       </c>
       <c r="C20">
-        <v>9.424911197565713</v>
+        <v>14.05736185920786</v>
       </c>
       <c r="D20">
-        <v>4.057624373428274</v>
+        <v>4.35585517035816</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.75878408472758</v>
+        <v>20.20240809741789</v>
       </c>
       <c r="G20">
-        <v>3.592060714371364</v>
+        <v>2.035285346832092</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04279726873576</v>
+        <v>37.55085760204175</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.1463327004984</v>
+        <v>14.63245263436843</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.565725727592</v>
+        <v>23.21492180538462</v>
       </c>
       <c r="C21">
-        <v>9.772451463211635</v>
+        <v>14.69472808469322</v>
       </c>
       <c r="D21">
-        <v>4.120735828794088</v>
+        <v>4.506486830595763</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.87213304251047</v>
+        <v>21.21713970103038</v>
       </c>
       <c r="G21">
-        <v>3.589624576712605</v>
+        <v>2.027468178273337</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85133684439636</v>
+        <v>40.55869974762065</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.13669735845511</v>
+        <v>15.15953320972109</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.97601356211137</v>
+        <v>23.99766067791135</v>
       </c>
       <c r="C22">
-        <v>9.99205083793194</v>
+        <v>15.09290226279395</v>
       </c>
       <c r="D22">
-        <v>4.161195673280252</v>
+        <v>4.601182264208407</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.95305247043708</v>
+        <v>21.89025855581248</v>
       </c>
       <c r="G22">
-        <v>3.588090459396454</v>
+        <v>2.022368152631846</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37179604730623</v>
+        <v>42.54169902013822</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.13610168082096</v>
+        <v>15.5238907393391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.7586009115933</v>
+        <v>23.58324875933553</v>
       </c>
       <c r="C23">
-        <v>9.875550079765434</v>
+        <v>14.88213198565494</v>
       </c>
       <c r="D23">
-        <v>4.139675924960154</v>
+        <v>4.551002361631664</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.90924393539333</v>
+        <v>21.53005008736647</v>
       </c>
       <c r="G23">
-        <v>3.588903954562121</v>
+        <v>2.025090551484346</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09480016075598</v>
+        <v>41.48054079046206</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.13589645867537</v>
+        <v>15.32754494619876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.90106736245833</v>
+        <v>21.94052174416347</v>
       </c>
       <c r="C24">
-        <v>9.419106826790223</v>
+        <v>14.04664658193546</v>
       </c>
       <c r="D24">
-        <v>4.056580108020767</v>
+        <v>4.353333484729912</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.75704806669496</v>
+        <v>20.18598379396423</v>
       </c>
       <c r="G24">
-        <v>3.592101515744061</v>
+        <v>2.035413515242192</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02946014853265</v>
+        <v>37.50174664946885</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.14658608723218</v>
+        <v>14.62416106368495</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.90529723621311</v>
+        <v>20.01401032124824</v>
       </c>
       <c r="C25">
-        <v>8.895965453328493</v>
+        <v>13.07178584469598</v>
       </c>
       <c r="D25">
-        <v>3.963820444811897</v>
+        <v>4.125555742601977</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.62272170234496</v>
+        <v>18.77703520134616</v>
       </c>
       <c r="G25">
-        <v>3.59580167082497</v>
+        <v>2.04668939773283</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85206972083139</v>
+        <v>33.18807552281502</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.18242108371829</v>
+        <v>13.94577976578252</v>
       </c>
     </row>
   </sheetData>
